--- a/Proyecto1/FSCM1-C-SALIDAS.xlsx
+++ b/Proyecto1/FSCM1-C-SALIDAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Gil\Desktop\Universidad\4to semestre\Electrónica digital 1\Digital_1\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B675914-CD18-46DB-82D8-546AF3968324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCCC3D-27FC-4382-8225-FD448E40859B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5E4E5AF-CC2F-434A-93A1-9A9E32EE6EB1}"/>
   </bookViews>
@@ -76,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +89,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,19 +104,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,34 +454,35 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection sqref="A1:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -472,6 +499,7 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="1">
         <v>0</v>
       </c>
@@ -498,6 +526,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1">
         <v>0</v>
       </c>
@@ -524,6 +553,7 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="1">
         <v>0</v>
       </c>
@@ -550,6 +580,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="1">
         <v>0</v>
       </c>
@@ -576,6 +607,7 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -602,6 +634,7 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -628,6 +661,7 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="1">
         <v>0</v>
       </c>
@@ -654,6 +688,7 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="1">
         <v>0</v>
       </c>
@@ -680,6 +715,7 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="1">
         <v>0</v>
       </c>
@@ -706,6 +742,7 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="1">
         <v>0</v>
       </c>
@@ -732,6 +769,7 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="1">
         <v>0</v>
       </c>
@@ -758,6 +796,7 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1">
         <v>0</v>
       </c>
@@ -784,6 +823,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="1">
         <v>0</v>
       </c>
@@ -810,6 +850,7 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="1">
         <v>0</v>
       </c>
@@ -836,6 +877,7 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -862,6 +904,7 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="1">
         <v>0</v>
       </c>
@@ -888,6 +931,7 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="1">
         <v>0</v>
       </c>
@@ -914,6 +958,7 @@
       <c r="D19" s="1">
         <v>0</v>
       </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="1">
         <v>0</v>
       </c>
@@ -940,6 +985,7 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="1">
         <v>0</v>
       </c>
@@ -966,6 +1012,7 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="1">
         <v>0</v>
       </c>
@@ -992,6 +1039,7 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -1018,6 +1066,7 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="1">
         <v>0</v>
       </c>
@@ -1044,6 +1093,7 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="1">
         <v>0</v>
       </c>
@@ -1070,6 +1120,7 @@
       <c r="D25" s="1">
         <v>1</v>
       </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="1">
         <v>0</v>
       </c>
@@ -1096,6 +1147,7 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="1">
         <v>0</v>
       </c>
@@ -1122,6 +1174,7 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="1">
         <v>0</v>
       </c>
@@ -1148,6 +1201,7 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="1">
         <v>0</v>
       </c>
@@ -1174,6 +1228,7 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="1">
         <v>0</v>
       </c>
@@ -1200,6 +1255,7 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="1">
         <v>0</v>
       </c>
@@ -1226,6 +1282,7 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="1">
         <v>0</v>
       </c>
@@ -1252,6 +1309,7 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="1">
         <v>0</v>
       </c>
@@ -1278,6 +1336,7 @@
       <c r="D33" s="1">
         <v>1</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="1">
         <v>0</v>
       </c>
@@ -1292,19 +1351,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>0</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="A34" s="3">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="1">
         <v>0</v>
       </c>
@@ -1331,6 +1390,7 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="1">
         <v>1</v>
       </c>
@@ -1357,6 +1417,7 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="1">
         <v>1</v>
       </c>
@@ -1383,6 +1444,7 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="1">
         <v>1</v>
       </c>
@@ -1409,6 +1471,7 @@
       <c r="D38" s="1">
         <v>1</v>
       </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,6 +1498,7 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1461,6 +1525,7 @@
       <c r="D40" s="1">
         <v>1</v>
       </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1487,6 +1552,7 @@
       <c r="D41" s="1">
         <v>0</v>
       </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1513,6 +1579,7 @@
       <c r="D42" s="1">
         <v>1</v>
       </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
